--- a/data/raw/signals.xlsx
+++ b/data/raw/signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universiteittwente-my.sharepoint.com/personal/m_sikora_utwente_nl/Documents/Desktop/PhD_Stress-In-Action/01_Database/Dashboard/relational/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{EE7EFFBB-AE63-435E-B1B6-7559D67A2B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD25993A-43C6-419E-B32F-1F255336C2E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D3C9F5-4507-4248-8669-8EBF60E5683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12960" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
   <si>
     <t>device_id</t>
   </si>
@@ -195,7 +195,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,21 +548,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1BD5DC-A81B-4D9C-8626-3C643AFB0E7B}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -606,7 +606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -617,7 +617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -628,7 +628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -639,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -650,7 +650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -723,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -734,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -768,7 +768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -791,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -802,7 +802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -813,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -835,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -858,7 +858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -869,7 +869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -880,7 +880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -903,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -937,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -960,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -971,135 +971,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/signals.xlsx
+++ b/data/raw/signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D3C9F5-4507-4248-8669-8EBF60E5683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CE182C-3DC2-46F6-8461-FCE0722D448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
   </bookViews>
@@ -89,12 +89,6 @@
     <t>skin_temperature</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>reflection</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>If other signals are available, make available column yes and the list of signals goes here as text</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1BD5DC-A81B-4D9C-8626-3C643AFB0E7B}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,13 +573,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -593,17 +593,17 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="9">
         <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,16 +658,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -700,16 +700,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -742,16 +742,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,24 +759,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6">
         <v>26</v>
@@ -785,65 +785,65 @@
         <v>208</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -852,43 +852,43 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7">
         <v>26</v>
@@ -897,21 +897,21 @@
         <v>208</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7">
         <v>26</v>
@@ -920,32 +920,32 @@
         <v>208</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -954,21 +954,21 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
